--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 6,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 8,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 7,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 6,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 10,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 12,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 13,37</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 4,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 10,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 11,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 7,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 17,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 5,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 21,15</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 1,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 3,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,02; 10,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,51; 5,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,09; 2,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 7,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 4,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 7,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 5,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 11,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 5,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 13,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,98</t>
+          <t>-1,8; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 13,37</t>
+          <t>-2,72; 13,64</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>19,06%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 11,6</t>
+          <t>0,01; 28,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 21,15</t>
+          <t>-0,04; 75,63</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>-7,76%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,18</t>
+          <t>-9,45; 1,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 2,46</t>
+          <t>-17,26; 3,45</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,44</t>
+          <t>-0,28; 19,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 13,9</t>
+          <t>-0,55; 44,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,97</t>
+          <t>-3,79; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,99</t>
+          <t>-1,06; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,98</t>
+          <t>1,23; 9,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,11</t>
+          <t>-1,55; 8,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,09</t>
+          <t>-5,38; 6,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,76</t>
+          <t>-1,52; 10,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,21</t>
+          <t>1,57; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 13,64</t>
+          <t>-2,31; 13,67</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,4</t>
+          <t>-2,54; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,36</t>
+          <t>3,34; 10,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,19</t>
+          <t>-1,28; 4,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 28,98</t>
+          <t>-0,05; 28,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,69</t>
+          <t>-4,22; 7,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 17,84</t>
+          <t>5,32; 16,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,71</t>
+          <t>-1,67; 5,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 75,63</t>
+          <t>-0,23; 75,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 1,16</t>
+          <t>-11,81; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 5,82</t>
+          <t>-8,43; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,6</t>
+          <t>-7,67; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 1,71</t>
+          <t>-9,37; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 2,32</t>
+          <t>-19,69; 2,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 10,5</t>
+          <t>-13,69; 9,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 5,63</t>
+          <t>-11,03; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 3,45</t>
+          <t>-17,12; 3,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,01</t>
+          <t>-2,01; 2,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,21</t>
+          <t>2,59; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,13</t>
+          <t>-0,09; 4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 19,84</t>
+          <t>0,13; 21,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,09</t>
+          <t>-3,27; 5,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,85</t>
+          <t>4,06; 11,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,68</t>
+          <t>-0,13; 5,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 44,2</t>
+          <t>0,28; 50,86</t>
         </is>
       </c>
     </row>
